--- a/examples/sources/data/unsolved/to_schedule/2018-12-26.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2018-12-26.xlsx
@@ -2325,7 +2325,7 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="M64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3809,7 +3809,7 @@
         <v>0</v>
       </c>
       <c r="M67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -3985,7 +3985,7 @@
         <v>1</v>
       </c>
       <c r="N71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O71" s="2">
         <v>43460</v>
@@ -4026,7 +4026,7 @@
         <v>1</v>
       </c>
       <c r="N72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O72" s="2">
         <v>43460</v>
@@ -4064,7 +4064,7 @@
         <v>0</v>
       </c>
       <c r="M73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -4149,7 +4149,7 @@
         <v>1</v>
       </c>
       <c r="N75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O75" s="2">
         <v>43460</v>
@@ -5243,7 +5243,7 @@
         <v>0</v>
       </c>
       <c r="M100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N100">
         <v>1</v>
@@ -5812,7 +5812,7 @@
         <v>0</v>
       </c>
       <c r="M113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N113">
         <v>1</v>
@@ -5979,7 +5979,7 @@
         <v>1</v>
       </c>
       <c r="N117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O117" s="2">
         <v>43460</v>
@@ -6111,7 +6111,7 @@
         <v>1</v>
       </c>
       <c r="N120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O120" s="2">
         <v>43460</v>
@@ -6668,7 +6668,7 @@
         <v>0</v>
       </c>
       <c r="M133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N133">
         <v>1</v>
@@ -6712,7 +6712,7 @@
         <v>1</v>
       </c>
       <c r="N134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O134" s="2">
         <v>43460</v>
@@ -6753,7 +6753,7 @@
         <v>1</v>
       </c>
       <c r="N135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O135" s="2">
         <v>43460</v>
@@ -6791,7 +6791,7 @@
         <v>0</v>
       </c>
       <c r="M136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N136">
         <v>1</v>
@@ -7313,7 +7313,7 @@
         <v>1</v>
       </c>
       <c r="N148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O148" s="2">
         <v>43460</v>
@@ -7404,7 +7404,7 @@
         <v>1</v>
       </c>
       <c r="N150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O150" s="2">
         <v>43460</v>
@@ -9140,7 +9140,7 @@
         <v>0</v>
       </c>
       <c r="M190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N190">
         <v>1</v>
@@ -9184,7 +9184,7 @@
         <v>1</v>
       </c>
       <c r="N191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O191" s="2">
         <v>43460</v>
@@ -9225,7 +9225,7 @@
         <v>1</v>
       </c>
       <c r="N192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O192" s="2">
         <v>43460</v>
@@ -9266,7 +9266,7 @@
         <v>1</v>
       </c>
       <c r="N193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O193" s="2">
         <v>43460</v>
@@ -9304,7 +9304,7 @@
         <v>0</v>
       </c>
       <c r="M194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N194">
         <v>1</v>
